--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-77</v>
+        <v>-75</v>
       </c>
       <c r="D2" t="n">
         <v>1.0005</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>-75</v>
+        <v>-71.6576262890778</v>
       </c>
       <c r="D3" t="n">
         <v>1.0005</v>
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>38.5</v>
+        <v>180.513140029589</v>
       </c>
       <c r="C4" t="n">
-        <v>-64.5981894738793</v>
+        <v>-44.059683603117</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5</v>
+        <v>0.950142133705476</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>271.385621131759</v>
+        <v>454.331183985633</v>
       </c>
       <c r="C5" t="n">
-        <v>-34.0829006064861</v>
+        <v>-16.9007869850754</v>
       </c>
       <c r="D5" t="n">
-        <v>232.885621131759</v>
+        <v>0.602683798972299</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>531.498429245955</v>
+        <v>624.726192982313</v>
       </c>
       <c r="C6" t="n">
-        <v>-10.3852733982163</v>
+        <v>-2.92090787921529</v>
       </c>
       <c r="D6" t="n">
-        <v>260.112808114196</v>
+        <v>0.272751504436287</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>645.490543431168</v>
+        <v>660.327940364287</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.31043625627018</v>
+        <v>-0.170222338927957</v>
       </c>
       <c r="D7" t="n">
-        <v>113.992114185213</v>
+        <v>0.0539152521129624</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>661.95137870795</v>
+        <v>662.5311048556561</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0459865128422621</v>
+        <v>-0.0016467980762087</v>
       </c>
       <c r="D8" t="n">
-        <v>16.4608352767815</v>
+        <v>0.0033253751789487</v>
       </c>
     </row>
     <row r="9">
@@ -558,41 +558,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>662.550039443012</v>
+        <v>662.552627355466</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0001988252007549</v>
+        <v>-9.22459150842769e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.598660735062481</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" t="n">
-        <v>662.5526390248421</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-3.00796045848983e-08</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0025995818300543</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>662.552639418184</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-2.8421709430404e-14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.9334156554105e-07</v>
+        <v>3.24842117008596e-05</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
         <v>-75</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0005</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>-71.6576262890778</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0005</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>-44.059683603117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.950142133705476</v>
+        <v>171.513140029589</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>-16.9007869850754</v>
       </c>
       <c r="D5" t="n">
-        <v>0.602683798972299</v>
+        <v>273.818043956044</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>-2.92090787921529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.272751504436287</v>
+        <v>170.39500899668</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>-0.170222338927957</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0539152521129624</v>
+        <v>35.6017473819737</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>-0.0016467980762087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0033253751789487</v>
+        <v>2.20316449136851</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,21 @@
         <v>-9.22459150842769e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>3.24842117008596e-05</v>
+        <v>0.0215224998099757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>662.552639418119</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.00222085975111e-12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.20626532407186e-05</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>-75</v>
+        <v>-250</v>
       </c>
       <c r="D2" t="n">
-        <v>1.005</v>
+        <v>1.000005</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>-71.6576262890778</v>
+        <v>-1.20892581961463e+24</v>
       </c>
       <c r="D3" t="n">
-        <v>1.005</v>
+        <v>1.000005</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>180.513140029589</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>-44.059683603117</v>
+        <v>-250</v>
       </c>
       <c r="D4" t="n">
-        <v>171.513140029589</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -502,83 +502,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>454.331183985633</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-16.9007869850754</v>
+        <v>-250</v>
       </c>
       <c r="D5" t="n">
-        <v>273.818043956044</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>624.726192982313</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-2.92090787921529</v>
-      </c>
-      <c r="D6" t="n">
-        <v>170.39500899668</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>660.327940364287</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.170222338927957</v>
-      </c>
-      <c r="D7" t="n">
-        <v>35.6017473819737</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>662.5311048556561</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.0016467980762087</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.20316449136851</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>662.552627355466</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-9.22459150842769e-07</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0215224998099757</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" t="n">
-        <v>662.552639418119</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-5.00222085975111e-12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.20626532407186e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,15 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-250</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4+0i</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-18.7040605278392+0i</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>1.000005</v>
@@ -473,11 +477,15 @@
       <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>40</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.20892581961463e+24</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5+0i</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-19.2660653870387+0i</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>1.000005</v>
@@ -487,28 +495,144 @@
       <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-250</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-29.280958734915+0i</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-65.9195207605659+21.9911485751286i</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>34.280958734915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16.5830459169158+5.45992749458747i</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-16.4358438563967+3.23344542496094i</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>46.1878526340996</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30.6068734935409+9.5924933680559i</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-6.66963429265068+7.4664989470913i</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>14.6200492679563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-250</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>38.4468543484832-1.70495510671007i</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-0.104959974007855-1.39473800846541i</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>13.7512778259278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>38.6314819072681+0.0293225405982047i</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0530071282597753+0.0240093158748621i</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.74407749065687</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>38.5668623764884-0.000323332536290095i</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.000108435518054506-0.000264646721201403i</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0710954397418634</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>38.5667299467003-4.89885721211328e-08i</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.24168149493198e-08-4.00969703358155e-08i</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0003493564097239</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>38.5667298948774-6.68306423910729e-14i</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-2.1316282072803e-14-5.47006407546197e-14i</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7.13125783248615e-08</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,15 +459,11 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4+0i</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-18.7040605278392+0i</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.9990234375</v>
       </c>
       <c r="D2" t="n">
         <v>1.000005</v>
@@ -477,15 +473,11 @@
       <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5+0i</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-19.2660653870387+0i</t>
-        </is>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.20892581961463e+24</v>
       </c>
       <c r="D3" t="n">
         <v>1.000005</v>
@@ -495,144 +487,28 @@
       <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-29.280958734915+0i</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-65.9195207605659+21.9911485751286i</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.9990234375</v>
       </c>
       <c r="D4" t="n">
-        <v>34.280958734915</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16.5830459169158+5.45992749458747i</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-16.4358438563967+3.23344542496094i</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.9990234375</v>
       </c>
       <c r="D5" t="n">
-        <v>46.1878526340996</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>30.6068734935409+9.5924933680559i</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-6.66963429265068+7.4664989470913i</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>14.6200492679563</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>38.4468543484832-1.70495510671007i</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-0.104959974007855-1.39473800846541i</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>13.7512778259278</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>38.6314819072681+0.0293225405982047i</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.0530071282597753+0.0240093158748621i</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.74407749065687</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>38.5668623764884-0.000323332536290095i</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.000108435518054506-0.000264646721201403i</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0710954397418634</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>38.5667299467003-4.89885721211328e-08i</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4.24168149493198e-08-4.00969703358155e-08i</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0003493564097239</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>38.5667298948774-6.68306423910729e-14i</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-2.1316282072803e-14-5.47006407546197e-14i</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>7.13125783248615e-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_secante.xlsx
+++ b/app/tables/tabla_secante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.9990234375</v>
+        <v>-75</v>
       </c>
       <c r="D2" t="n">
         <v>1.000005</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.20892581961463e+24</v>
+        <v>-72.29381928997699</v>
       </c>
       <c r="D3" t="n">
         <v>1.000005</v>
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>-5</v>
+        <v>167.286012731271</v>
       </c>
       <c r="C4" t="n">
-        <v>14.9990234375</v>
+        <v>-45.6396747455757</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>160.286012731271</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,97 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>-5</v>
+        <v>441.742447644579</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9990234375</v>
+        <v>-17.9975833298854</v>
       </c>
       <c r="D5" t="n">
+        <v>274.456434913308</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>620.439221470155</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.25561172458789</v>
+      </c>
+      <c r="D6" t="n">
+        <v>178.696773825576</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>659.902552942285</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.202792517081662</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39.4633314721297</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>662.524021092768</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.0021885137978188</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.62146815048322</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>662.552620318726</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.46057210770323e-06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0285992259574641</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>662.552639418047</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.05160324892495e-11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.9099321093563e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>662.552639418184</v>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.37561073643155e-10</v>
       </c>
     </row>
   </sheetData>
